--- a/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_146.xlsx
+++ b/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_146.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,722 +488,688 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>isophonics_238</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_157</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.09855072463768116</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['B:dim7', 'C', 'F']]</t>
-        </is>
+          <t>schubert-winterreise_83</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>isophonics_124</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.3833333333333333</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['B:dim7', 'C:maj', 'F:maj/A']]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(17.769637, 22.996281)]</t>
+          <t>[['F', 'Bb', 'F']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(14.68, 17.36)]</t>
+          <t>[('0:02:12.300000', '0:02:16.560000')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>spotify:track:5By7Pzgl6TMuVJG168VWzS</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>[('0:00:15.124263', '0:00:20.058503')]</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_79</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_171</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.2753623188405797</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min']]</t>
-        </is>
+          <t>isophonics_15</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_17</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.4</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['F#:min', 'B:min/F#', 'F#:min', 'C#:7', 'F#:min']]</t>
+          <t>[['C', 'F', 'C']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(17.38, 31.86)]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(1.36, 6.46)]</t>
+          <t>[('0:01:10.203514', '0:01:27.246961')]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>[('0:02:18.020000', '0:02:22.340000')]</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_138</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_112</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.2666666666666667</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:min', 'E:7', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_73</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_214</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.5079365079365079</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['G#:min', 'D#:min', 'A#:7', 'D#:min']]</t>
+          <t>[['C:maj', 'G:maj/D', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(16.72, 26.46)]</t>
+          <t>[['C:maj', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(6.76, 12.96)]</t>
+          <t>[('0:01:06.060000', '0:01:08.180000')]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>[('0:00:07.580000', '0:00:20.100000')]</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_162</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['D:7', 'G:maj', 'G:maj', 'D:7/F#', 'B:7', 'E:min', 'G:maj/D', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
-        </is>
+          <t>schubert-winterreise_186</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_203</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.2461538461538462</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:maj', 'A:maj', 'E:7/G#', 'C#:7', 'F#:min', 'A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
+          <t>[['C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(10.2, 29.8)]</t>
+          <t>[['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(8.34, 26.4)]</t>
+          <t>[('0:01:53.020000', '0:01:54.760000')]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+          <t>[('0:01:06.920000', '0:01:24.540000')]</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_65</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_168</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.1384615384615385</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['D#:min', 'A#:7', 'D#:min'], ['D#:min', 'A#:maj', 'D#:min']]</t>
-        </is>
+          <t>isophonics_235</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_134</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.3833333333333333</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['A#:min/F', 'F:7', 'A#:min'], ['A#:min', 'F:maj', 'A#:min']]</t>
+          <t>[['Eb', 'Bb', 'Eb']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(9.1, 13.86), (0.78, 5.98)]</t>
+          <t>[['F:maj', 'C:maj/G', 'F:maj/A']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(74.5, 80.42), (11.7, 20.02)]</t>
+          <t>[('0:00:51.839081', '0:01:03.042709')]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>[('0:02:25.040000', '0:02:27.860000')]</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_62</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_22</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.2666666666666667</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['F:7', 'A#:maj/F', 'F:7', 'A#:maj/F']]</t>
-        </is>
+          <t>schubert-winterreise_162</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_111</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.2657342657342657</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['F:7', 'A#:maj/F', 'F:7', 'A#:maj']]</t>
+          <t>[['G:maj/D', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(90.14, 98.78)]</t>
+          <t>[['G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(106.96, 119.34)]</t>
+          <t>[('0:00:23.260000', '0:00:29.800000')]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+          <t>[('0:01:07.760000', '0:01:24.780000')]</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_55</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_168</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.06153846153846154</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['G:min/A#', 'C:min', 'G:min/A#'], ['G:min/D', 'D:7', 'G:min']]</t>
-        </is>
+          <t>isophonics_217</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_72</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.3517156862745098</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['A#:min', 'D#:min/A#', 'A#:min'], ['A#:min/F', 'F:7', 'A#:min']]</t>
+          <t>[['G', 'D', 'G', 'D', 'G', 'D', 'G']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(87.2, 97.22), (41.38, 43.34)]</t>
+          <t>[['C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(25.48, 32.8), (74.5, 80.42)]</t>
+          <t>[('0:00:25.606371', '0:00:42.394399')]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>[('0:00:08.340000', '0:00:12.240000')]</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_79</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_184</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:min', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_111</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_36</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:min', 'G:min']]</t>
+          <t>[['B:7', 'A:min/C', 'D:7', 'G:maj', 'G:maj', 'E:min', 'A:min/C', 'D:7', 'G:maj', 'C:maj/G', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'D:min/F', 'E:hdim7', 'D:min/F', 'E:(3,b5,b7)', 'D:min/F', 'D:min/F', 'G:7', 'C:min', 'D:(3,b5,b7)', 'C:min/D#', 'F:min/G#', 'G:hdim7', 'F:min/G#', 'G:(3,b5,b7)', 'F:min/G#', 'C:min/D#', 'G:min/D', 'D:7', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'G#:maj/C', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'D:7', 'G:min', 'G:maj', 'G:7/F', 'C:maj/E', 'G:maj/D', 'G:7/F', 'C:maj/E', 'G:maj/D', 'A:min7/C', 'D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B', 'C:min', 'G:min/A#', 'C:min', 'G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(10.24, 21.02)]</t>
+          <t>[['B:7', 'A:min/C', 'D:7', 'G:maj', 'G:maj', 'E:min', 'A:min/C', 'D:7', 'G:maj', 'C:maj/G', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'D:min/F', 'E:hdim7', 'D:min/F', 'E:(3,b5,b7)', 'D:min/F', 'D:min/F', 'G:7', 'C:min', 'D:(3,b5,b7)', 'C:min/D#', 'F:min/G#', 'G:hdim7', 'F:min/G#', 'G:(3,b5,b7)', 'F:min/G#', 'C:min/D#', 'G:min/D', 'D:7', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'G#:maj/C', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'D:7', 'G:min', 'G:maj', 'G:7/F', 'C:maj/E', 'G:maj/D', 'G:7/F', 'C:maj/E', 'G:maj/D', 'A:min7/C', 'D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B', 'C:min', 'G:min/A#', 'C:min', 'G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(11.62, 15.6)]</t>
+          <t>[('0:00:05.440000', '0:01:53.760000')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>[('0:00:07.540000', '0:02:02.260000')]</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_6</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_118</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.07334525939177103</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['D:maj/F#', 'A:7', 'D:maj']]</t>
-        </is>
+          <t>schubert-winterreise_86</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_173</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.2687747035573123</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['C:maj/G', 'G:7', 'C:maj']]</t>
+          <t>[['D:7', 'G:maj', 'G:maj', 'D:7/F#']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(37.54, 42.72)]</t>
+          <t>[['D:7', 'G:maj', 'G:maj/B', 'D:7']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(31.74, 33.88)]</t>
+          <t>[('0:00:05.880000', '0:00:12.780000')]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>[('0:00:18.300000', '0:00:21.320000')]</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_138</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_26</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.2666666666666667</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:min', 'E:7', 'A:min']]</t>
-        </is>
+          <t>isophonics_205</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_50</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.0572717806317251</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['A#:min', 'F:min', 'C:7', 'F:min']]</t>
+          <t>[['A:min', 'A:min/b7', 'A:min/6']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(16.72, 26.46)]</t>
+          <t>[['D:min', 'D:min', 'D:min/A']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(8.18, 14.18)]</t>
+          <t>[('0:00:00.060000', '0:00:06.451609')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>[('0:00:29.160000', '0:00:42.540000')]</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>spotify:track:389QX9Q1eUOEZ19vtzzI9O</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_186</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_132</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.2461538461538462</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
-        </is>
+          <t>isophonics_92</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_1</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.2113636363636364</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:maj', 'C:7/A#', 'F:maj/A', 'C:7/A#', 'F:maj/A']]</t>
+          <t>[['E:7', 'A', 'A']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(113.02, 114.76)]</t>
+          <t>[['E:7', 'A:maj', 'A:maj']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(72.5, 93.84)]</t>
+          <t>[('0:00:24.631133', '0:00:29.751133')]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>[('0:00:07.020000', '0:00:13.540000')]</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>spotify:track:7HTH1ppjkkOe7RLoBDKXYJ</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_109</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_163</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['A:7', 'D:min', 'D:min'], ['D:maj/A', 'A:7', 'D:min'], ['D:min', 'A:7/E', 'D:min']]</t>
-        </is>
+          <t>schubert-winterreise_40</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_200</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:min/C', 'F:min'], ['F:maj/C', 'C:7', 'F:min/C'], ['F:min', 'C:7', 'F:min']]</t>
+          <t>[['A#:maj', 'A:(3,5,b9)/A#', 'A#:maj', 'E:(3,b5,b9)/A#', 'A:maj/A#', 'A#:maj', 'A:(3,5,b7,b9)', 'A#:maj']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(12.54, 25.94), (52.42, 61.26), (1.54, 6.88)]</t>
+          <t>[['C:maj', 'B:(3,5,b9)/C', 'C:maj', 'F#:(3,b5,b9)/C', 'B:maj/C', 'C:maj', 'B:(3,5,b7,b9)', 'C:maj']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(32.32, 33.88), (32.04, 33.42), (7.7, 12.06)]</t>
+          <t>[('0:02:41.980000', '0:02:46.620000')]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>[('0:02:28.100000', '0:02:32.600000')]</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_213</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_185</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.1384615384615385</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['A:min', 'E:7/G#', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_1</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_102</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['B:min/F#', 'F#:7', 'B:min']]</t>
+          <t>[['E:7', 'A:maj', 'A:maj', 'E:7/G#', 'C#:7', 'F#:min', 'A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(42.94, 51.08)]</t>
+          <t>[['D:7', 'G:maj', 'G:maj', 'D:7/F#', 'B:7', 'E:min', 'G:maj/D', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(84.0, 90.84)]</t>
+          <t>[('0:00:07.020000', '0:00:24.780000')]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+          <t>[('0:00:06.740000', '0:00:21.540000')]</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>isophonics_138</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_55</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.06361746361746362</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['C:min', 'F:min', 'C:min'], ['C:min', 'G:7', 'C:min']]</t>
-        </is>
+          <t>schubert-winterreise_189</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_107</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>0.7142857142857143</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['G:min/A#', 'C:min', 'G:min/A#'], ['G:min/D', 'D:7', 'G:min']]</t>
+          <t>[['D#:maj/A#', 'A#:(3,5,b7,b9)', 'D#:maj']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(13.648526, 21.12535), (1.129708, 6.12526)]</t>
+          <t>[['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(87.2, 97.22), (41.38, 43.34)]</t>
+          <t>[('0:00:53.160000', '0:00:55.820000')]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>spotify:track:6tQvjqDIK9GXWIC6mejms8</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:00:24.660000', '0:00:27.760000')]</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_47</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_157</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.1334681496461072</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:7', 'D:min', 'D:min']]</t>
-        </is>
+          <t>schubert-winterreise_198</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>isophonics_111</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>0.7556818181818181</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['F:min', 'C:7', 'F:min', 'F:min']]</t>
+          <t>[['E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(8.2, 23.6)]</t>
+          <t>[['C', 'G:7', 'C', 'G:7', 'C', 'G:7', 'C']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(2.56, 6.82)]</t>
+          <t>[('0:00:25.720000', '0:00:51.960000')]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>isophonics_255</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>isophonics_22</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.1301075268817204</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['D', 'D/5', 'D', 'D/5', 'G:maj6/5', 'G:maj6/2']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['B', 'B/7', 'B/6', 'B/5', 'E:maj6', 'C#:min7']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(90.564195, 95.556485)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(0.440395, 4.406553)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>spotify:track:6rHh8urosEFRI67xVa6fzU</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>spotify:track:1h04XMpzGzmAudoI6VHBgA</t>
-        </is>
-      </c>
+          <t>[('0:01:10.519024', '0:01:22.732721')]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
